--- a/AccApi/Package-Paint Works -External.xlsx
+++ b/AccApi/Package-Paint Works -External.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App\Dot Net\My Projects\Procurement RFQ\AccApi\AccApi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BDCFEA-3559-45DD-8B57-A49D5CCA1B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF2B308-7FCF-4652-8960-525E0F844531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -632,7 +632,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G22" s="4"/>
     </row>

--- a/AccApi/Package-Paint Works -External.xlsx
+++ b/AccApi/Package-Paint Works -External.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Item</t>
   </si>
@@ -62,18 +62,27 @@
     <t>LOT N°11 - PEINTURE (POUR 9 IMMEUBLES DE BUREAUX)</t>
   </si>
   <si>
+    <t>11.3.1</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
     <t>PEINTURE PANTEX 800</t>
   </si>
   <si>
+    <t>11.3.1.1</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Peinture PANTEX 800 pour murs intérieurs sans enduit répassé</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>Peinture PANTEX 800 pour murs intérieurs sans enduit répassé</t>
-  </si>
-  <si>
     <t>1 couche dimpression type PANTIPRIM de SEIGNEURIE 2 couches PANTEX 800 de SEIGNEURIE avec fongicide en finition</t>
   </si>
   <si>
@@ -120,6 +129,45 @@
   </si>
   <si>
     <t>- Escalier C</t>
+  </si>
+  <si>
+    <t>11.3.1.2</t>
+  </si>
+  <si>
+    <t>Pour Dalle PANTEX 800 mat sans enduit repassé.</t>
+  </si>
+  <si>
+    <t>1 couche dimpression type PANTIPRIM de SEIGNEURIE 2 couches PANTEX 800 de SEIGNEURIE en finition</t>
+  </si>
+  <si>
+    <t>Localisation : Esplanade - Dalle des Locaux indiqués ci-dessous.</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.2.85</t>
+  </si>
+  <si>
+    <t>- Escalier A (dégagement + sous-face volet)</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.2.86</t>
+  </si>
+  <si>
+    <t>- Escalier B (dégagement + sous-face volet)</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.2.87</t>
+  </si>
+  <si>
+    <t>- Escalier C (dégagement + sous-face volet)</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.2.89</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.2.90</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.2.91</t>
   </si>
 </sst>
 </file>
@@ -183,7 +231,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -262,24 +310,24 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
@@ -287,10 +335,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
@@ -298,10 +346,10 @@
         <v>7</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
@@ -309,21 +357,21 @@
         <v>7</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E22" s="0">
         <v>100.35</v>
@@ -333,13 +381,13 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E24" s="0">
         <v>144.63</v>
@@ -349,13 +397,13 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E26" s="0">
         <v>96.66</v>
@@ -365,13 +413,13 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E28" s="0">
         <v>539.82</v>
@@ -381,13 +429,13 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E30" s="0">
         <v>587.79</v>
@@ -397,19 +445,159 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E32" s="0">
         <v>580.14</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="4"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="0">
+        <v>253.62</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="0">
+        <v>273.42</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="0">
+        <v>268.56</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="0">
+        <v>228.6</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="0">
+        <v>253.89</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" s="0">
+        <v>249.12</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="G52" s="4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1"/>

--- a/AccApi/Package-Paint Works -External.xlsx
+++ b/AccApi/Package-Paint Works -External.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>Item</t>
   </si>
@@ -131,6 +131,108 @@
     <t>- Escalier C</t>
   </si>
   <si>
+    <t>BUR-11.3.1.1.45</t>
+  </si>
+  <si>
+    <t>- Entretien</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.46</t>
+  </si>
+  <si>
+    <t>- L.T.E.</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.47</t>
+  </si>
+  <si>
+    <t>- CTA</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.48</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.49</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.50</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.52</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.53</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.54</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.55</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.56</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.57</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.59</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.60</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.61</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.62</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.63</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.64</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.66</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.67</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.68</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.69</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.70</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.71</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.73</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.74</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.75</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.76</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.77</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.78</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.80</t>
+  </si>
+  <si>
     <t>11.3.1.2</t>
   </si>
   <si>
@@ -168,6 +270,120 @@
   </si>
   <si>
     <t>BUR-11.3.1.2.91</t>
+  </si>
+  <si>
+    <t>LOT N°11 - PEINTURE BATIMENT AVEC DATA CENTER</t>
+  </si>
+  <si>
+    <t>BUR1-11.3.1.1.56</t>
+  </si>
+  <si>
+    <t>BUR1-11.3.1.1.57</t>
+  </si>
+  <si>
+    <t>BUR1-11.3.1.1.58</t>
+  </si>
+  <si>
+    <t>BUR1-11.3.1.1.59</t>
+  </si>
+  <si>
+    <t>BUR1-11.3.1.1.60</t>
+  </si>
+  <si>
+    <t>BUR1-11.3.1.1.61</t>
+  </si>
+  <si>
+    <t>BUR1-11.3.1.1.63</t>
+  </si>
+  <si>
+    <t>BUR1-11.3.1.1.64</t>
+  </si>
+  <si>
+    <t>BUR1-11.3.1.1.65</t>
+  </si>
+  <si>
+    <t>BUR1-11.3.1.1.66</t>
+  </si>
+  <si>
+    <t>BUR1-11.3.1.1.67</t>
+  </si>
+  <si>
+    <t>BUR1-11.3.1.1.68</t>
+  </si>
+  <si>
+    <t>BUR1-11.3.1.1.70</t>
+  </si>
+  <si>
+    <t>BUR1-11.3.1.1.71</t>
+  </si>
+  <si>
+    <t>BUR1-11.3.1.1.72</t>
+  </si>
+  <si>
+    <t>BUR1-11.3.1.1.73</t>
+  </si>
+  <si>
+    <t>BUR1-11.3.1.1.74</t>
+  </si>
+  <si>
+    <t>BUR1-11.3.1.1.75</t>
+  </si>
+  <si>
+    <t>BUR1-11.3.1.1.77</t>
+  </si>
+  <si>
+    <t>BUR1-11.3.1.1.78</t>
+  </si>
+  <si>
+    <t>BUR1-11.3.1.1.79</t>
+  </si>
+  <si>
+    <t>BUR1-11.3.1.1.80</t>
+  </si>
+  <si>
+    <t>BUR1-11.3.1.1.81</t>
+  </si>
+  <si>
+    <t>BUR1-11.3.1.1.82</t>
+  </si>
+  <si>
+    <t>BUR1-11.3.1.1.84</t>
+  </si>
+  <si>
+    <t>BUR1-11.3.1.1.85</t>
+  </si>
+  <si>
+    <t>BUR1-11.3.1.1.86</t>
+  </si>
+  <si>
+    <t>BUR1-11.3.1.1.87</t>
+  </si>
+  <si>
+    <t>BUR1-11.3.1.1.88</t>
+  </si>
+  <si>
+    <t>BUR1-11.3.1.1.89</t>
+  </si>
+  <si>
+    <t>BUR1-11.3.1.1.91</t>
+  </si>
+  <si>
+    <t>BUR1-11.3.1.1.92</t>
+  </si>
+  <si>
+    <t>BUR1-11.3.1.1.93</t>
+  </si>
+  <si>
+    <t>BUR1-11.3.1.1.94</t>
+  </si>
+  <si>
+    <t>BUR1-11.3.1.1.95</t>
+  </si>
+  <si>
+    <t>BUR1-11.3.1.1.96</t>
+  </si>
+  <si>
+    <t>BUR1-11.3.1.1.98</t>
   </si>
 </sst>
 </file>
@@ -231,12 +447,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G198"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="40" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1" style="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1" style="1"/>
   </cols>
@@ -463,90 +680,110 @@
       <c r="A34" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="D34" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="0">
+        <v>100.35</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="4"/>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="C36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="0">
+        <v>144.63</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="0">
+        <v>96.66</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="4"/>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="0">
+        <v>539.82</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="4"/>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E42" s="0">
-        <v>253.62</v>
+        <v>587.79</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="4"/>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E44" s="0">
-        <v>273.42</v>
+        <v>580.14</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="4"/>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E46" s="0">
-        <v>268.56</v>
+        <v>100.35</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="4"/>
@@ -556,13 +793,13 @@
         <v>49</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E48" s="0">
-        <v>228.6</v>
+        <v>144.63</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="4"/>
@@ -572,13 +809,13 @@
         <v>50</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E50" s="0">
-        <v>253.89</v>
+        <v>96.66</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="4"/>
@@ -588,16 +825,1139 @@
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E52" s="0">
-        <v>249.12</v>
+        <v>647.19</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="4"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" s="0">
+        <v>695.97</v>
+      </c>
+      <c r="F54" s="3"/>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" s="0">
+        <v>688.41</v>
+      </c>
+      <c r="F56" s="3"/>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" s="0">
+        <v>100.35</v>
+      </c>
+      <c r="F58" s="3"/>
+      <c r="G58" s="4"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60" s="0">
+        <v>144.63</v>
+      </c>
+      <c r="F60" s="3"/>
+      <c r="G60" s="4"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" s="0">
+        <v>96.66</v>
+      </c>
+      <c r="F62" s="3"/>
+      <c r="G62" s="4"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" s="0">
+        <v>647.19</v>
+      </c>
+      <c r="F64" s="3"/>
+      <c r="G64" s="4"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66" s="0">
+        <v>695.97</v>
+      </c>
+      <c r="F66" s="3"/>
+      <c r="G66" s="4"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" s="0">
+        <v>688.41</v>
+      </c>
+      <c r="F68" s="3"/>
+      <c r="G68" s="4"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70" s="0">
+        <v>100.35</v>
+      </c>
+      <c r="F70" s="3"/>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E72" s="0">
+        <v>144.63</v>
+      </c>
+      <c r="F72" s="3"/>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E74" s="0">
+        <v>96.66</v>
+      </c>
+      <c r="F74" s="3"/>
+      <c r="G74" s="4"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E76" s="0">
+        <v>647.19</v>
+      </c>
+      <c r="F76" s="3"/>
+      <c r="G76" s="4"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E78" s="0">
+        <v>695.97</v>
+      </c>
+      <c r="F78" s="3"/>
+      <c r="G78" s="4"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E80" s="0">
+        <v>688.41</v>
+      </c>
+      <c r="F80" s="3"/>
+      <c r="G80" s="4"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E82" s="0">
+        <v>100.35</v>
+      </c>
+      <c r="F82" s="3"/>
+      <c r="G82" s="4"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E84" s="0">
+        <v>144.63</v>
+      </c>
+      <c r="F84" s="3"/>
+      <c r="G84" s="4"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E86" s="0">
+        <v>96.66</v>
+      </c>
+      <c r="F86" s="3"/>
+      <c r="G86" s="4"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E88" s="0">
+        <v>921.24</v>
+      </c>
+      <c r="F88" s="3"/>
+      <c r="G88" s="4"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E90" s="0">
+        <v>695.97</v>
+      </c>
+      <c r="F90" s="3"/>
+      <c r="G90" s="4"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E92" s="0">
+        <v>979.02</v>
+      </c>
+      <c r="F92" s="3"/>
+      <c r="G92" s="4"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E94" s="0">
+        <v>437.67</v>
+      </c>
+      <c r="F94" s="3"/>
+      <c r="G94" s="4"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E104" s="0">
+        <v>253.62</v>
+      </c>
+      <c r="F104" s="3"/>
+      <c r="G104" s="4"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E106" s="0">
+        <v>273.42</v>
+      </c>
+      <c r="F106" s="3"/>
+      <c r="G106" s="4"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E108" s="0">
+        <v>268.56</v>
+      </c>
+      <c r="F108" s="3"/>
+      <c r="G108" s="4"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E110" s="0">
+        <v>228.6</v>
+      </c>
+      <c r="F110" s="3"/>
+      <c r="G110" s="4"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E112" s="0">
+        <v>253.89</v>
+      </c>
+      <c r="F112" s="3"/>
+      <c r="G112" s="4"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E114" s="0">
+        <v>249.12</v>
+      </c>
+      <c r="F114" s="3"/>
+      <c r="G114" s="4"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E126" s="0">
+        <v>11.15</v>
+      </c>
+      <c r="F126" s="3"/>
+      <c r="G126" s="4"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E128" s="0">
+        <v>16.07</v>
+      </c>
+      <c r="F128" s="3"/>
+      <c r="G128" s="4"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130" s="0">
+        <v>10.74</v>
+      </c>
+      <c r="F130" s="3"/>
+      <c r="G130" s="4"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E132" s="0">
+        <v>59.98</v>
+      </c>
+      <c r="F132" s="3"/>
+      <c r="G132" s="4"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E134" s="0">
+        <v>65.31</v>
+      </c>
+      <c r="F134" s="3"/>
+      <c r="G134" s="4"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E136" s="0">
+        <v>64.46</v>
+      </c>
+      <c r="F136" s="3"/>
+      <c r="G136" s="4"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D138" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E138" s="0">
+        <v>11.15</v>
+      </c>
+      <c r="F138" s="3"/>
+      <c r="G138" s="4"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E140" s="0">
+        <v>16.07</v>
+      </c>
+      <c r="F140" s="3"/>
+      <c r="G140" s="4"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D142" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E142" s="0">
+        <v>10.74</v>
+      </c>
+      <c r="F142" s="3"/>
+      <c r="G142" s="4"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D144" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E144" s="0">
+        <v>59.98</v>
+      </c>
+      <c r="F144" s="3"/>
+      <c r="G144" s="4"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D146" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E146" s="0">
+        <v>65.31</v>
+      </c>
+      <c r="F146" s="3"/>
+      <c r="G146" s="4"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D148" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E148" s="0">
+        <v>64.46</v>
+      </c>
+      <c r="F148" s="3"/>
+      <c r="G148" s="4"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D150" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E150" s="0">
+        <v>11.15</v>
+      </c>
+      <c r="F150" s="3"/>
+      <c r="G150" s="4"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D152" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E152" s="0">
+        <v>16.07</v>
+      </c>
+      <c r="F152" s="3"/>
+      <c r="G152" s="4"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D154" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E154" s="0">
+        <v>10.74</v>
+      </c>
+      <c r="F154" s="3"/>
+      <c r="G154" s="4"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D156" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E156" s="0">
+        <v>71.91</v>
+      </c>
+      <c r="F156" s="3"/>
+      <c r="G156" s="4"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D158" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E158" s="0">
+        <v>77.33</v>
+      </c>
+      <c r="F158" s="3"/>
+      <c r="G158" s="4"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D160" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E160" s="0">
+        <v>76.49</v>
+      </c>
+      <c r="F160" s="3"/>
+      <c r="G160" s="4"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D162" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E162" s="0">
+        <v>11.15</v>
+      </c>
+      <c r="F162" s="3"/>
+      <c r="G162" s="4"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D164" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E164" s="0">
+        <v>16.07</v>
+      </c>
+      <c r="F164" s="3"/>
+      <c r="G164" s="4"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D166" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E166" s="0">
+        <v>10.74</v>
+      </c>
+      <c r="F166" s="3"/>
+      <c r="G166" s="4"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D168" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E168" s="0">
+        <v>71.91</v>
+      </c>
+      <c r="F168" s="3"/>
+      <c r="G168" s="4"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D170" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E170" s="0">
+        <v>77.33</v>
+      </c>
+      <c r="F170" s="3"/>
+      <c r="G170" s="4"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D172" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E172" s="0">
+        <v>76.49</v>
+      </c>
+      <c r="F172" s="3"/>
+      <c r="G172" s="4"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D174" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E174" s="0">
+        <v>11.15</v>
+      </c>
+      <c r="F174" s="3"/>
+      <c r="G174" s="4"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D176" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E176" s="0">
+        <v>16.07</v>
+      </c>
+      <c r="F176" s="3"/>
+      <c r="G176" s="4"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D178" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E178" s="0">
+        <v>10.74</v>
+      </c>
+      <c r="F178" s="3"/>
+      <c r="G178" s="4"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D180" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E180" s="0">
+        <v>71.91</v>
+      </c>
+      <c r="F180" s="3"/>
+      <c r="G180" s="4"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D182" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E182" s="0">
+        <v>77.33</v>
+      </c>
+      <c r="F182" s="3"/>
+      <c r="G182" s="4"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D184" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E184" s="0">
+        <v>76.49</v>
+      </c>
+      <c r="F184" s="3"/>
+      <c r="G184" s="4"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D186" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E186" s="0">
+        <v>11.15</v>
+      </c>
+      <c r="F186" s="3"/>
+      <c r="G186" s="4"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D188" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E188" s="0">
+        <v>16.07</v>
+      </c>
+      <c r="F188" s="3"/>
+      <c r="G188" s="4"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D190" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E190" s="0">
+        <v>10.74</v>
+      </c>
+      <c r="F190" s="3"/>
+      <c r="G190" s="4"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D192" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E192" s="0">
+        <v>102.36</v>
+      </c>
+      <c r="F192" s="3"/>
+      <c r="G192" s="4"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D194" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E194" s="0">
+        <v>77.33</v>
+      </c>
+      <c r="F194" s="3"/>
+      <c r="G194" s="4"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D196" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E196" s="0">
+        <v>108.78</v>
+      </c>
+      <c r="F196" s="3"/>
+      <c r="G196" s="4"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D198" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E198" s="0">
+        <v>48.63</v>
+      </c>
+      <c r="F198" s="3"/>
+      <c r="G198" s="4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1"/>

--- a/AccApi/Package-Paint Works -External.xlsx
+++ b/AccApi/Package-Paint Works -External.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Item</t>
   </si>
@@ -29,9 +29,27 @@
     <t>Qty</t>
   </si>
   <si>
+    <t>Ressouce Type</t>
+  </si>
+  <si>
+    <t>Ressouce Code</t>
+  </si>
+  <si>
+    <t>Ressouce Description</t>
+  </si>
+  <si>
+    <t>Ressouce Unit</t>
+  </si>
+  <si>
+    <t>Ressouce Qty</t>
+  </si>
+  <si>
     <t>Unit Price</t>
   </si>
   <si>
+    <t>Total Price</t>
+  </si>
+  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -62,18 +80,12 @@
     <t>LOT N°11 - PEINTURE (POUR 9 IMMEUBLES DE BUREAUX)</t>
   </si>
   <si>
-    <t>11.3.1</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
     <t>PEINTURE PANTEX 800</t>
   </si>
   <si>
-    <t>11.3.1.1</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -101,6 +113,15 @@
     <t>m²</t>
   </si>
   <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>S021</t>
+  </si>
+  <si>
+    <t>PAINTING</t>
+  </si>
+  <si>
     <t>BUR-11.3.1.1.39</t>
   </si>
   <si>
@@ -129,6 +150,81 @@
   </si>
   <si>
     <t>- Escalier C</t>
+  </si>
+  <si>
+    <t>Peinture PANTEX 800 pour murs intérieurs avec enduit répassé</t>
+  </si>
+  <si>
+    <t>1 couche dimpression type PANTIPRIM de SEIGNEURIE 2 couches denduit type AFRIC ENDUIT de SEIGNEURIE 2 couches PANTEX 800 de SEIGNEURIE avec fongicide en finition</t>
+  </si>
+  <si>
+    <t>Localisation : Immeuble de Bureaux - Murs intérieurs des locaux désignés ci-dessous,</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.3.114</t>
+  </si>
+  <si>
+    <t>- Circulations, bureaux, attente, accueil, copie</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.3.116</t>
+  </si>
+  <si>
+    <t>- Circulations, bureaux, attente,</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.3.118</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.3.120</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.3.122</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.3.124</t>
+  </si>
+  <si>
+    <t>- Sur cloisons Placoplatre</t>
+  </si>
+  <si>
+    <t>• 1 couche de d’impression type PANTIPRIM de SEIGNEURIE 2 couches denduit type AFRIC ENDUIT de SEIGNEURIE • 2 couches PANTEX 800 de SEIGNEURIE avec fongicide en finition Localisation : Sur cloisons Placoplatre, Suivant indication ‘’Peinture’’ de la grille de finition des locaux,</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.3.127</t>
+  </si>
+  <si>
+    <t>- RDC</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.3.128</t>
+  </si>
+  <si>
+    <t>- R+1</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.3.129</t>
+  </si>
+  <si>
+    <t>- R+2</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.3.130</t>
+  </si>
+  <si>
+    <t>- R+3</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.3.131</t>
+  </si>
+  <si>
+    <t>- R+4</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.3.132</t>
+  </si>
+  <si>
+    <t>- R+5</t>
   </si>
 </sst>
 </file>
@@ -192,7 +288,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -200,7 +296,8 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1" style="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1" style="1"/>
+    <col min="8" max="8" width="50" customWidth="1" style="1"/>
+    <col min="13" max="13" width="50" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1">
@@ -225,201 +322,891 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E22" s="0">
         <v>100.35</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="4"/>
+      <c r="G22" s="0">
+        <f>=E22*F22</f>
+      </c>
+    </row>
+    <row r="23">
+      <c r="F23" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="0">
+        <v>100.35</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="0">
+        <f>=J23*K23</f>
+      </c>
+      <c r="M23" s="4"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E24" s="0">
         <v>144.63</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="4"/>
+      <c r="G24" s="0">
+        <f>=E24*F24</f>
+      </c>
+    </row>
+    <row r="25">
+      <c r="F25" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="0">
+        <v>144.63</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="0">
+        <f>=J25*K25</f>
+      </c>
+      <c r="M25" s="4"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E26" s="0">
         <v>96.66</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="4"/>
+      <c r="G26" s="0">
+        <f>=E26*F26</f>
+      </c>
+    </row>
+    <row r="27">
+      <c r="F27" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="0">
+        <v>96.66</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="0">
+        <f>=J27*K27</f>
+      </c>
+      <c r="M27" s="4"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E28" s="0">
         <v>539.82</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="4"/>
+      <c r="G28" s="0">
+        <f>=E28*F28</f>
+      </c>
+    </row>
+    <row r="29">
+      <c r="F29" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="0">
+        <v>539.82</v>
+      </c>
+      <c r="K29" s="3"/>
+      <c r="L29" s="0">
+        <f>=J29*K29</f>
+      </c>
+      <c r="M29" s="4"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E30" s="0">
         <v>587.79</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="4"/>
+      <c r="G30" s="0">
+        <f>=E30*F30</f>
+      </c>
+    </row>
+    <row r="31">
+      <c r="F31" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="0">
+        <v>587.79</v>
+      </c>
+      <c r="K31" s="3"/>
+      <c r="L31" s="0">
+        <f>=J31*K31</f>
+      </c>
+      <c r="M31" s="4"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E32" s="0">
         <v>580.14</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="4"/>
+      <c r="G32" s="0">
+        <f>=E32*F32</f>
+      </c>
+    </row>
+    <row r="33">
+      <c r="F33" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="0">
+        <v>580.14</v>
+      </c>
+      <c r="K33" s="3"/>
+      <c r="L33" s="0">
+        <f>=J33*K33</f>
+      </c>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="0">
+        <v>4714.2</v>
+      </c>
+      <c r="G42" s="0">
+        <f>=E42*F42</f>
+      </c>
+    </row>
+    <row r="43">
+      <c r="F43" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="0">
+        <v>4714.2</v>
+      </c>
+      <c r="K43" s="3"/>
+      <c r="L43" s="0">
+        <f>=J43*K43</f>
+      </c>
+      <c r="M43" s="4"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="0">
+        <v>4049.1</v>
+      </c>
+      <c r="G44" s="0">
+        <f>=E44*F44</f>
+      </c>
+    </row>
+    <row r="45">
+      <c r="F45" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" s="0">
+        <v>4049.1</v>
+      </c>
+      <c r="K45" s="3"/>
+      <c r="L45" s="0">
+        <f>=J45*K45</f>
+      </c>
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="0">
+        <v>4312.62</v>
+      </c>
+      <c r="G46" s="0">
+        <f>=E46*F46</f>
+      </c>
+    </row>
+    <row r="47">
+      <c r="F47" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="0">
+        <v>4312.62</v>
+      </c>
+      <c r="K47" s="3"/>
+      <c r="L47" s="0">
+        <f>=J47*K47</f>
+      </c>
+      <c r="M47" s="4"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="0">
+        <v>4346.19</v>
+      </c>
+      <c r="G48" s="0">
+        <f>=E48*F48</f>
+      </c>
+    </row>
+    <row r="49">
+      <c r="F49" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="0">
+        <v>4346.19</v>
+      </c>
+      <c r="K49" s="3"/>
+      <c r="L49" s="0">
+        <f>=J49*K49</f>
+      </c>
+      <c r="M49" s="4"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="0">
+        <v>4346.19</v>
+      </c>
+      <c r="G50" s="0">
+        <f>=E50*F50</f>
+      </c>
+    </row>
+    <row r="51">
+      <c r="F51" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" s="0">
+        <v>4346.19</v>
+      </c>
+      <c r="K51" s="3"/>
+      <c r="L51" s="0">
+        <f>=J51*K51</f>
+      </c>
+      <c r="M51" s="4"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="0">
+        <v>4312.62</v>
+      </c>
+      <c r="G52" s="0">
+        <f>=E52*F52</f>
+      </c>
+    </row>
+    <row r="53">
+      <c r="F53" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53" s="0">
+        <v>4312.62</v>
+      </c>
+      <c r="K53" s="3"/>
+      <c r="L53" s="0">
+        <f>=J53*K53</f>
+      </c>
+      <c r="M53" s="4"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="0">
+        <v>5617.44</v>
+      </c>
+      <c r="G58" s="0">
+        <f>=E58*F58</f>
+      </c>
+    </row>
+    <row r="59">
+      <c r="F59" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J59" s="0">
+        <v>5617.44</v>
+      </c>
+      <c r="K59" s="3"/>
+      <c r="L59" s="0">
+        <f>=J59*K59</f>
+      </c>
+      <c r="M59" s="4"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="0">
+        <v>5770.71</v>
+      </c>
+      <c r="G60" s="0">
+        <f>=E60*F60</f>
+      </c>
+    </row>
+    <row r="61">
+      <c r="F61" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J61" s="0">
+        <v>5770.71</v>
+      </c>
+      <c r="K61" s="3"/>
+      <c r="L61" s="0">
+        <f>=J61*K61</f>
+      </c>
+      <c r="M61" s="4"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="0">
+        <v>7288.02</v>
+      </c>
+      <c r="G62" s="0">
+        <f>=E62*F62</f>
+      </c>
+    </row>
+    <row r="63">
+      <c r="F63" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J63" s="0">
+        <v>7288.02</v>
+      </c>
+      <c r="K63" s="3"/>
+      <c r="L63" s="0">
+        <f>=J63*K63</f>
+      </c>
+      <c r="M63" s="4"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" s="0">
+        <v>5721.12</v>
+      </c>
+      <c r="G64" s="0">
+        <f>=E64*F64</f>
+      </c>
+    </row>
+    <row r="65">
+      <c r="F65" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J65" s="0">
+        <v>5721.12</v>
+      </c>
+      <c r="K65" s="3"/>
+      <c r="L65" s="0">
+        <f>=J65*K65</f>
+      </c>
+      <c r="M65" s="4"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" s="0">
+        <v>5770.71</v>
+      </c>
+      <c r="G66" s="0">
+        <f>=E66*F66</f>
+      </c>
+    </row>
+    <row r="67">
+      <c r="F67" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I67" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J67" s="0">
+        <v>5770.71</v>
+      </c>
+      <c r="K67" s="3"/>
+      <c r="L67" s="0">
+        <f>=J67*K67</f>
+      </c>
+      <c r="M67" s="4"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68" s="0">
+        <v>5781.51</v>
+      </c>
+      <c r="G68" s="0">
+        <f>=E68*F68</f>
+      </c>
+    </row>
+    <row r="69">
+      <c r="F69" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J69" s="0">
+        <v>5781.51</v>
+      </c>
+      <c r="K69" s="3"/>
+      <c r="L69" s="0">
+        <f>=J69*K69</f>
+      </c>
+      <c r="M69" s="4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1"/>
